--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Colq-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Colq-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.24445</v>
+      </c>
+      <c r="H2">
+        <v>0.7333499999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.1855970043299641</v>
+      </c>
+      <c r="J2">
+        <v>0.1855970043299641</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.003096666666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.009290000000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.003565739727867657</v>
-      </c>
-      <c r="J2">
-        <v>0.003565739727867657</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.5981746666666667</v>
+        <v>0.01470066666666667</v>
       </c>
       <c r="N2">
-        <v>1.794524</v>
+        <v>0.044102</v>
       </c>
       <c r="O2">
-        <v>0.02144965888565845</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="P2">
-        <v>0.02144965888565845</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="Q2">
-        <v>0.001852347551111112</v>
+        <v>0.003593577966666667</v>
       </c>
       <c r="R2">
-        <v>0.01667112796</v>
+        <v>0.0323422017</v>
       </c>
       <c r="S2">
-        <v>7.648390083780182E-05</v>
+        <v>9.996606591791454E-05</v>
       </c>
       <c r="T2">
-        <v>7.648390083780183E-05</v>
+        <v>9.996606591791454E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.003096666666666667</v>
+        <v>0.24445</v>
       </c>
       <c r="H3">
-        <v>0.009290000000000001</v>
+        <v>0.7333499999999999</v>
       </c>
       <c r="I3">
-        <v>0.003565739727867657</v>
+        <v>0.1855970043299641</v>
       </c>
       <c r="J3">
-        <v>0.003565739727867657</v>
+        <v>0.1855970043299641</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>20.769802</v>
       </c>
       <c r="O3">
-        <v>0.2482581275160803</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="P3">
-        <v>0.2482581275160803</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="Q3">
-        <v>0.02143905117555556</v>
+        <v>1.692392699633333</v>
       </c>
       <c r="R3">
-        <v>0.19295146058</v>
+        <v>15.2315342967</v>
       </c>
       <c r="S3">
-        <v>0.0008852238680501223</v>
+        <v>0.04707893963616237</v>
       </c>
       <c r="T3">
-        <v>0.0008852238680501223</v>
+        <v>0.04707893963616237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.003096666666666667</v>
+        <v>0.24445</v>
       </c>
       <c r="H4">
-        <v>0.009290000000000001</v>
+        <v>0.7333499999999999</v>
       </c>
       <c r="I4">
-        <v>0.003565739727867657</v>
+        <v>0.1855970043299641</v>
       </c>
       <c r="J4">
-        <v>0.003565739727867657</v>
+        <v>0.1855970043299641</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.20726666666667</v>
+        <v>20.35529066666667</v>
       </c>
       <c r="N4">
-        <v>60.6218</v>
+        <v>61.065872</v>
       </c>
       <c r="O4">
-        <v>0.7246026974476848</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="P4">
-        <v>0.7246026974476848</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="Q4">
-        <v>0.06257516911111112</v>
+        <v>4.975850803466666</v>
       </c>
       <c r="R4">
-        <v>0.5631765220000001</v>
+        <v>44.7826572312</v>
       </c>
       <c r="S4">
-        <v>0.002583744625209278</v>
+        <v>0.1384180986278838</v>
       </c>
       <c r="T4">
-        <v>0.002583744625209278</v>
+        <v>0.1384180986278838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3068836666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.9206509999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.2329993422422932</v>
+      </c>
+      <c r="J5">
+        <v>0.2329993422422932</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.003096666666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.009290000000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.003565739727867657</v>
-      </c>
-      <c r="J5">
-        <v>0.003565739727867657</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.1586656666666667</v>
+        <v>0.01470066666666667</v>
       </c>
       <c r="N5">
-        <v>0.475997</v>
+        <v>0.044102</v>
       </c>
       <c r="O5">
-        <v>0.005689516150576289</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="P5">
-        <v>0.005689516150576288</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="Q5">
-        <v>0.0004913346811111113</v>
+        <v>0.00451139448911111</v>
       </c>
       <c r="R5">
-        <v>0.004422012130000001</v>
+        <v>0.040602550402</v>
       </c>
       <c r="S5">
-        <v>2.028733377045453E-05</v>
+        <v>0.0001254978639849921</v>
       </c>
       <c r="T5">
-        <v>2.028733377045453E-05</v>
+        <v>0.0001254978639849921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3068836666666667</v>
+        <v>0.3068836666666666</v>
       </c>
       <c r="H6">
-        <v>0.9206510000000001</v>
+        <v>0.9206509999999999</v>
       </c>
       <c r="I6">
-        <v>0.3533694129387606</v>
+        <v>0.2329993422422932</v>
       </c>
       <c r="J6">
-        <v>0.3533694129387607</v>
+        <v>0.2329993422422932</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5981746666666667</v>
+        <v>6.923267333333333</v>
       </c>
       <c r="N6">
-        <v>1.794524</v>
+        <v>20.769802</v>
       </c>
       <c r="O6">
-        <v>0.02144965888565845</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="P6">
-        <v>0.02144965888565845</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="Q6">
-        <v>0.1835700350137778</v>
+        <v>2.124637664566888</v>
       </c>
       <c r="R6">
-        <v>1.652130315124</v>
+        <v>19.12173898110199</v>
       </c>
       <c r="S6">
-        <v>0.007579653368161797</v>
+        <v>0.05910311973133226</v>
       </c>
       <c r="T6">
-        <v>0.007579653368161797</v>
+        <v>0.05910311973133226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3068836666666667</v>
+        <v>0.3068836666666666</v>
       </c>
       <c r="H7">
-        <v>0.9206510000000001</v>
+        <v>0.9206509999999999</v>
       </c>
       <c r="I7">
-        <v>0.3533694129387606</v>
+        <v>0.2329993422422932</v>
       </c>
       <c r="J7">
-        <v>0.3533694129387607</v>
+        <v>0.2329993422422932</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.923267333333333</v>
+        <v>20.35529066666667</v>
       </c>
       <c r="N7">
-        <v>20.769802</v>
+        <v>61.065872</v>
       </c>
       <c r="O7">
-        <v>0.2482581275160803</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="P7">
-        <v>0.2482581275160803</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="Q7">
-        <v>2.124637664566889</v>
+        <v>6.246706235852443</v>
       </c>
       <c r="R7">
-        <v>19.121738981102</v>
+        <v>56.22035612267199</v>
       </c>
       <c r="S7">
-        <v>0.08772682877763328</v>
+        <v>0.173770724646976</v>
       </c>
       <c r="T7">
-        <v>0.08772682877763328</v>
+        <v>0.173770724646976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3068836666666667</v>
+        <v>0.7637476666666666</v>
       </c>
       <c r="H8">
-        <v>0.9206510000000001</v>
+        <v>2.291243</v>
       </c>
       <c r="I8">
-        <v>0.3533694129387606</v>
+        <v>0.5798702352110178</v>
       </c>
       <c r="J8">
-        <v>0.3533694129387607</v>
+        <v>0.5798702352110177</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>20.20726666666667</v>
+        <v>0.01470066666666667</v>
       </c>
       <c r="N8">
-        <v>60.6218</v>
+        <v>0.044102</v>
       </c>
       <c r="O8">
-        <v>0.7246026974476848</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="P8">
-        <v>0.7246026974476848</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="Q8">
-        <v>6.201280087977779</v>
+        <v>0.01122759986511111</v>
       </c>
       <c r="R8">
-        <v>55.81152079180001</v>
+        <v>0.101048398786</v>
       </c>
       <c r="S8">
-        <v>0.2560524298109307</v>
+        <v>0.0003123291044821167</v>
       </c>
       <c r="T8">
-        <v>0.2560524298109308</v>
+        <v>0.0003123291044821167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3068836666666667</v>
+        <v>0.7637476666666666</v>
       </c>
       <c r="H9">
-        <v>0.9206510000000001</v>
+        <v>2.291243</v>
       </c>
       <c r="I9">
-        <v>0.3533694129387606</v>
+        <v>0.5798702352110178</v>
       </c>
       <c r="J9">
-        <v>0.3533694129387607</v>
+        <v>0.5798702352110177</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1586656666666667</v>
+        <v>6.923267333333333</v>
       </c>
       <c r="N9">
-        <v>0.475997</v>
+        <v>20.769802</v>
       </c>
       <c r="O9">
-        <v>0.005689516150576289</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="P9">
-        <v>0.005689516150576288</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="Q9">
-        <v>0.04869190156077779</v>
+        <v>5.287629271542888</v>
       </c>
       <c r="R9">
-        <v>0.438227114047</v>
+        <v>47.58866344388599</v>
       </c>
       <c r="S9">
-        <v>0.00201050098203474</v>
+        <v>0.1470911445950495</v>
       </c>
       <c r="T9">
-        <v>0.002010500982034741</v>
+        <v>0.1470911445950495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.557926</v>
+        <v>0.7637476666666666</v>
       </c>
       <c r="H10">
-        <v>1.673778</v>
+        <v>2.291243</v>
       </c>
       <c r="I10">
-        <v>0.6424388277966491</v>
+        <v>0.5798702352110178</v>
       </c>
       <c r="J10">
-        <v>0.6424388277966492</v>
+        <v>0.5798702352110177</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5981746666666667</v>
+        <v>20.35529066666667</v>
       </c>
       <c r="N10">
-        <v>1.794524</v>
+        <v>61.065872</v>
       </c>
       <c r="O10">
-        <v>0.02144965888565845</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="P10">
-        <v>0.02144965888565845</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="Q10">
-        <v>0.3337371990746667</v>
+        <v>15.54630575098844</v>
       </c>
       <c r="R10">
-        <v>3.003634791672</v>
+        <v>139.916751758896</v>
       </c>
       <c r="S10">
-        <v>0.01378009371114039</v>
+        <v>0.4324667615114861</v>
       </c>
       <c r="T10">
-        <v>0.0137800937111404</v>
+        <v>0.4324667615114861</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.557926</v>
+        <v>0.002019666666666667</v>
       </c>
       <c r="H11">
-        <v>1.673778</v>
+        <v>0.006059</v>
       </c>
       <c r="I11">
-        <v>0.6424388277966491</v>
+        <v>0.001533418216724964</v>
       </c>
       <c r="J11">
-        <v>0.6424388277966492</v>
+        <v>0.001533418216724964</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>6.923267333333333</v>
+        <v>0.01470066666666667</v>
       </c>
       <c r="N11">
-        <v>20.769802</v>
+        <v>0.044102</v>
       </c>
       <c r="O11">
-        <v>0.2482581275160803</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="P11">
-        <v>0.2482581275160803</v>
+        <v>0.0005386189625140158</v>
       </c>
       <c r="Q11">
-        <v>3.862670850217333</v>
+        <v>2.969044644444444E-05</v>
       </c>
       <c r="R11">
-        <v>34.764037651956</v>
+        <v>0.000267214018</v>
       </c>
       <c r="S11">
-        <v>0.1594906604324217</v>
+        <v>8.259281289924924E-07</v>
       </c>
       <c r="T11">
-        <v>0.1594906604324217</v>
+        <v>8.259281289924924E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.557926</v>
+        <v>0.002019666666666667</v>
       </c>
       <c r="H12">
-        <v>1.673778</v>
+        <v>0.006059</v>
       </c>
       <c r="I12">
-        <v>0.6424388277966491</v>
+        <v>0.001533418216724964</v>
       </c>
       <c r="J12">
-        <v>0.6424388277966492</v>
+        <v>0.001533418216724964</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.20726666666667</v>
+        <v>6.923267333333333</v>
       </c>
       <c r="N12">
-        <v>60.6218</v>
+        <v>20.769802</v>
       </c>
       <c r="O12">
-        <v>0.7246026974476848</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="P12">
-        <v>0.7246026974476848</v>
+        <v>0.2536621741612972</v>
       </c>
       <c r="Q12">
-        <v>11.27415946226667</v>
+        <v>0.01398269225755555</v>
       </c>
       <c r="R12">
-        <v>101.4674351604</v>
+        <v>0.125844230318</v>
       </c>
       <c r="S12">
-        <v>0.4655129075665806</v>
+        <v>0.0003889701987529935</v>
       </c>
       <c r="T12">
-        <v>0.4655129075665806</v>
+        <v>0.0003889701987529935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,303 +1210,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.002019666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.006059</v>
+      </c>
+      <c r="I13">
+        <v>0.001533418216724964</v>
+      </c>
+      <c r="J13">
+        <v>0.001533418216724964</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.557926</v>
-      </c>
-      <c r="H13">
-        <v>1.673778</v>
-      </c>
-      <c r="I13">
-        <v>0.6424388277966491</v>
-      </c>
-      <c r="J13">
-        <v>0.6424388277966492</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1586656666666667</v>
+        <v>20.35529066666667</v>
       </c>
       <c r="N13">
-        <v>0.475997</v>
+        <v>61.065872</v>
       </c>
       <c r="O13">
-        <v>0.005689516150576289</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="P13">
-        <v>0.005689516150576288</v>
+        <v>0.7457992068761888</v>
       </c>
       <c r="Q13">
-        <v>0.08852370074066668</v>
+        <v>0.04111090204977777</v>
       </c>
       <c r="R13">
-        <v>0.796713306666</v>
+        <v>0.369998118448</v>
       </c>
       <c r="S13">
-        <v>0.003655166086506334</v>
+        <v>0.001143622089842978</v>
       </c>
       <c r="T13">
-        <v>0.003655166086506334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.0005436666666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.001631</v>
-      </c>
-      <c r="I14">
-        <v>0.0006260195367225131</v>
-      </c>
-      <c r="J14">
-        <v>0.0006260195367225132</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.5981746666666667</v>
-      </c>
-      <c r="N14">
-        <v>1.794524</v>
-      </c>
-      <c r="O14">
-        <v>0.02144965888565845</v>
-      </c>
-      <c r="P14">
-        <v>0.02144965888565845</v>
-      </c>
-      <c r="Q14">
-        <v>0.0003252076271111111</v>
-      </c>
-      <c r="R14">
-        <v>0.002926868644</v>
-      </c>
-      <c r="S14">
-        <v>1.342790551845584E-05</v>
-      </c>
-      <c r="T14">
-        <v>1.342790551845584E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.0005436666666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.001631</v>
-      </c>
-      <c r="I15">
-        <v>0.0006260195367225131</v>
-      </c>
-      <c r="J15">
-        <v>0.0006260195367225132</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>6.923267333333333</v>
-      </c>
-      <c r="N15">
-        <v>20.769802</v>
-      </c>
-      <c r="O15">
-        <v>0.2482581275160803</v>
-      </c>
-      <c r="P15">
-        <v>0.2482581275160803</v>
-      </c>
-      <c r="Q15">
-        <v>0.003763949673555555</v>
-      </c>
-      <c r="R15">
-        <v>0.03387554706199999</v>
-      </c>
-      <c r="S15">
-        <v>0.0001554144379752152</v>
-      </c>
-      <c r="T15">
-        <v>0.0001554144379752152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.0005436666666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.001631</v>
-      </c>
-      <c r="I16">
-        <v>0.0006260195367225131</v>
-      </c>
-      <c r="J16">
-        <v>0.0006260195367225132</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>20.20726666666667</v>
-      </c>
-      <c r="N16">
-        <v>60.6218</v>
-      </c>
-      <c r="O16">
-        <v>0.7246026974476848</v>
-      </c>
-      <c r="P16">
-        <v>0.7246026974476848</v>
-      </c>
-      <c r="Q16">
-        <v>0.01098601731111111</v>
-      </c>
-      <c r="R16">
-        <v>0.09887415579999999</v>
-      </c>
-      <c r="S16">
-        <v>0.000453615444964083</v>
-      </c>
-      <c r="T16">
-        <v>0.000453615444964083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.0005436666666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.001631</v>
-      </c>
-      <c r="I17">
-        <v>0.0006260195367225131</v>
-      </c>
-      <c r="J17">
-        <v>0.0006260195367225132</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.1586656666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.475997</v>
-      </c>
-      <c r="O17">
-        <v>0.005689516150576289</v>
-      </c>
-      <c r="P17">
-        <v>0.005689516150576288</v>
-      </c>
-      <c r="Q17">
-        <v>8.626123411111111E-05</v>
-      </c>
-      <c r="R17">
-        <v>0.0007763511069999999</v>
-      </c>
-      <c r="S17">
-        <v>3.561748264759024E-06</v>
-      </c>
-      <c r="T17">
-        <v>3.561748264759024E-06</v>
+        <v>0.001143622089842978</v>
       </c>
     </row>
   </sheetData>
